--- a/data/trans_orig/Q5413-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6199</v>
+        <v>5710</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006112595121937178</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02118626198671868</v>
+        <v>0.01951544082960857</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>3761</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8465</v>
+        <v>9470</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01096608042409804</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002707854757150613</v>
+        <v>0.002719591114775881</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02468286883525356</v>
+        <v>0.02761337273670411</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -786,19 +786,19 @@
         <v>5549</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2602</v>
+        <v>1939</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11464</v>
+        <v>12184</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008731604724890091</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004094048332164796</v>
+        <v>0.003051315456303857</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01803826423579501</v>
+        <v>0.01917142176273029</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>2715</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7246</v>
+        <v>7202</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009280542609053455</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002759843051485078</v>
+        <v>0.002736658153565745</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02476494904289517</v>
+        <v>0.02461419235545961</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -836,19 +836,19 @@
         <v>3761</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9034</v>
+        <v>9445</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01096686371104386</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00265108352705487</v>
+        <v>0.002655970247001721</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02634294578595721</v>
+        <v>0.02754072373502239</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -857,19 +857,19 @@
         <v>6476</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2852</v>
+        <v>2795</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13058</v>
+        <v>13159</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01019050542645577</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00448712585730357</v>
+        <v>0.00439808386805931</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02054712725801345</v>
+        <v>0.02070571254420897</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>288079</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>281940</v>
+        <v>282432</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>290879</v>
+        <v>290869</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9846068622690094</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9636250667366839</v>
+        <v>0.9653058430875843</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9941777104498749</v>
+        <v>0.9941414160496929</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>363</v>
@@ -907,19 +907,19 @@
         <v>335412</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>329098</v>
+        <v>329011</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>339284</v>
+        <v>339320</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9780670558648581</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.95965378184691</v>
+        <v>0.9594014004710246</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9893576154707501</v>
+        <v>0.9894620808893558</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>661</v>
@@ -928,19 +928,19 @@
         <v>623492</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>615575</v>
+        <v>614346</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>628367</v>
+        <v>628544</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9810778898486542</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9686202891378477</v>
+        <v>0.966687246780529</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9887500386151534</v>
+        <v>0.9890272459186424</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>2852</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6951</v>
+        <v>7699</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01358825091460447</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004067176282937156</v>
+        <v>0.004135901553610913</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03311834809197386</v>
+        <v>0.0366801920410644</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1053,19 +1053,19 @@
         <v>10660</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5746</v>
+        <v>4922</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20073</v>
+        <v>20033</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03192417959913161</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01720822566165522</v>
+        <v>0.01473935576303489</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06011463882762272</v>
+        <v>0.05999588858977859</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -1074,19 +1074,19 @@
         <v>13512</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7605</v>
+        <v>7704</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>23902</v>
+        <v>23567</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02484719625283701</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01398516912479566</v>
+        <v>0.01416804332366142</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04395513360429667</v>
+        <v>0.04333777239313704</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>11893</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6665</v>
+        <v>6608</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19806</v>
+        <v>18858</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05666705142803405</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03175342593302067</v>
+        <v>0.03148655234751846</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09436835899332112</v>
+        <v>0.0898486154686088</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -1124,19 +1124,19 @@
         <v>11348</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5667</v>
+        <v>5746</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20125</v>
+        <v>19785</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03398678450399701</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01697268314094854</v>
+        <v>0.01720875352618488</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06027037581323875</v>
+        <v>0.05925426355908431</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>23</v>
@@ -1145,19 +1145,19 @@
         <v>23242</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>14345</v>
+        <v>15329</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>33288</v>
+        <v>34137</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04274052008360644</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0263790576770995</v>
+        <v>0.02818882425272918</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06121523735270297</v>
+        <v>0.06277684704106605</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>195138</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>186585</v>
+        <v>186136</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>200672</v>
+        <v>200748</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9297446976573615</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8889937814721561</v>
+        <v>0.8868570347755887</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9561126234478882</v>
+        <v>0.9564745805825213</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>270</v>
@@ -1195,19 +1195,19 @@
         <v>311900</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>302170</v>
+        <v>301345</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>320142</v>
+        <v>320087</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9340890358968714</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9049501011333443</v>
+        <v>0.9024805091953699</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9587737457218619</v>
+        <v>0.9586080267469553</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>474</v>
@@ -1216,19 +1216,19 @@
         <v>507037</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>494149</v>
+        <v>493925</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>518538</v>
+        <v>518195</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9324122836635566</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9087111259259637</v>
+        <v>0.9082995079912796</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9535620528105708</v>
+        <v>0.9529305548715205</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>4640</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1708</v>
+        <v>1790</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10391</v>
+        <v>10451</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.009235220828753374</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003398480084264861</v>
+        <v>0.00356235658764911</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02068041159921359</v>
+        <v>0.02080034893523233</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>14</v>
@@ -1341,19 +1341,19 @@
         <v>14420</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7854</v>
+        <v>8251</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22954</v>
+        <v>24496</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02130538783815475</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01160408085792272</v>
+        <v>0.01219084568172347</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03391364210294133</v>
+        <v>0.036192234021306</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>19</v>
@@ -1362,19 +1362,19 @@
         <v>19061</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11692</v>
+        <v>11570</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>29522</v>
+        <v>29262</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0161626697483658</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009913909407774219</v>
+        <v>0.009810521802431707</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02503364437183117</v>
+        <v>0.02481308265988981</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>14609</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8341</v>
+        <v>9038</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23662</v>
+        <v>24042</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02907416803781678</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01659972655833012</v>
+        <v>0.01798662619481976</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0470921543891016</v>
+        <v>0.04784764857575685</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1412,19 +1412,19 @@
         <v>15109</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8390</v>
+        <v>8495</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24831</v>
+        <v>25341</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02232333434026529</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01239517582050205</v>
+        <v>0.01255050593662488</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03668668999075479</v>
+        <v>0.03744054970323402</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -1433,19 +1433,19 @@
         <v>29718</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20527</v>
+        <v>20126</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41688</v>
+        <v>41035</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02519965200434678</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01740573083344079</v>
+        <v>0.0170663127608628</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03534919664690642</v>
+        <v>0.03479547972007291</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>483217</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>472758</v>
+        <v>472760</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>489953</v>
+        <v>489621</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9616906111334298</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9408761879181544</v>
+        <v>0.9408790953747348</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9750977743287524</v>
+        <v>0.9744361805491425</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>633</v>
@@ -1483,19 +1483,19 @@
         <v>647312</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>634733</v>
+        <v>634513</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>656510</v>
+        <v>657116</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9563712778215799</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9377866384130155</v>
+        <v>0.9374604618441</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.969960346653541</v>
+        <v>0.9708561597506004</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1135</v>
@@ -1504,19 +1504,19 @@
         <v>1130529</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1114704</v>
+        <v>1117009</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1142347</v>
+        <v>1143491</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9586376782472874</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9452187724572843</v>
+        <v>0.9471734676563749</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.968658566034969</v>
+        <v>0.9696292229194806</v>
       </c>
     </row>
     <row r="15">
@@ -1846,19 +1846,19 @@
         <v>5116</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11828</v>
+        <v>11363</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01651311312178361</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006392452732357193</v>
+        <v>0.006385343765945885</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03818262312573165</v>
+        <v>0.03667993100668638</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -1867,19 +1867,19 @@
         <v>2921</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>931</v>
+        <v>948</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7839</v>
+        <v>7966</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008251034992450376</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002628722799340893</v>
+        <v>0.002676830160127138</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02214357798840537</v>
+        <v>0.02250214281361116</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -1888,19 +1888,19 @@
         <v>8036</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3151</v>
+        <v>3966</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15282</v>
+        <v>15931</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01210693487921459</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004747241337966083</v>
+        <v>0.005975488128794575</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02302279701242399</v>
+        <v>0.02400035228050226</v>
       </c>
     </row>
     <row r="5">
@@ -1917,19 +1917,19 @@
         <v>12346</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6185</v>
+        <v>6454</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21816</v>
+        <v>21852</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03985173469237279</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01996387909416454</v>
+        <v>0.02083508688727932</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07042355567634723</v>
+        <v>0.07054040174628033</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -1938,19 +1938,19 @@
         <v>16793</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9774</v>
+        <v>9849</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26622</v>
+        <v>26725</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04743861105547323</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02761162088569808</v>
+        <v>0.02782203932657403</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07520392859579893</v>
+        <v>0.07549495481145933</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -1959,19 +1959,19 @@
         <v>29139</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19278</v>
+        <v>20293</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41433</v>
+        <v>44462</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04389782685427929</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02904330472915935</v>
+        <v>0.03057237350023475</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06241951013400804</v>
+        <v>0.06698271491871666</v>
       </c>
     </row>
     <row r="6">
@@ -1988,19 +1988,19 @@
         <v>292325</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>281987</v>
+        <v>281266</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>299712</v>
+        <v>299365</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9436351521858436</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9102642511769135</v>
+        <v>0.9079353048672236</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9674802274872891</v>
+        <v>0.966360877989188</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>325</v>
@@ -2009,19 +2009,19 @@
         <v>334282</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>324265</v>
+        <v>322944</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>341867</v>
+        <v>341589</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9443103539520764</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9160137509158471</v>
+        <v>0.9122805525115587</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9657356981948062</v>
+        <v>0.964951136046078</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>591</v>
@@ -2030,19 +2030,19 @@
         <v>626607</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>613899</v>
+        <v>611337</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>637416</v>
+        <v>636561</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9439952382665061</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9248506106942156</v>
+        <v>0.9209905940597223</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9602786669146534</v>
+        <v>0.9589912933541822</v>
       </c>
     </row>
     <row r="7">
@@ -2134,19 +2134,19 @@
         <v>10920</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5257</v>
+        <v>5412</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19719</v>
+        <v>20954</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04370492262604322</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02104085525952321</v>
+        <v>0.02166104521309772</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0789218618323683</v>
+        <v>0.08386769429467823</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -2155,19 +2155,19 @@
         <v>32942</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>21969</v>
+        <v>23062</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>45110</v>
+        <v>46315</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08468862443756078</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05647922577957454</v>
+        <v>0.05928870093811025</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1159690946428715</v>
+        <v>0.1190686072922492</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>38</v>
@@ -2176,19 +2176,19 @@
         <v>43862</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>32789</v>
+        <v>32037</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>61377</v>
+        <v>59931</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06865961004890593</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05132624050344446</v>
+        <v>0.05014877636664152</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09607658149872517</v>
+        <v>0.09381350988872622</v>
       </c>
     </row>
     <row r="9">
@@ -2205,19 +2205,19 @@
         <v>16952</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10330</v>
+        <v>9606</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27204</v>
+        <v>26991</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06784704211525064</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04134601713256267</v>
+        <v>0.03844820266502227</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1088797462084209</v>
+        <v>0.1080300715876477</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>49</v>
@@ -2226,19 +2226,19 @@
         <v>53885</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>41614</v>
+        <v>40334</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>68981</v>
+        <v>68240</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1385283363252151</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1069820014340168</v>
+        <v>0.1036924393238265</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1773382441203506</v>
+        <v>0.1754335807449617</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>64</v>
@@ -2247,19 +2247,19 @@
         <v>70836</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>56166</v>
+        <v>54414</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>89140</v>
+        <v>89214</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.11088438441695</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08791987396790628</v>
+        <v>0.08517721984209797</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1395361573158327</v>
+        <v>0.1396522061377685</v>
       </c>
     </row>
     <row r="10">
@@ -2276,19 +2276,19 @@
         <v>221980</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>209595</v>
+        <v>209334</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>231623</v>
+        <v>231038</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8884480352587062</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8388791847779236</v>
+        <v>0.8378361811909596</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9270463046217454</v>
+        <v>0.9247050873567896</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>272</v>
@@ -2297,19 +2297,19 @@
         <v>302152</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>282519</v>
+        <v>283218</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>317849</v>
+        <v>317622</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7767830392372241</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7263092513271245</v>
+        <v>0.7281052896683833</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8171354351026031</v>
+        <v>0.816552249012499</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>470</v>
@@ -2318,19 +2318,19 @@
         <v>524132</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>502478</v>
+        <v>501134</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>542923</v>
+        <v>542646</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.820456005534144</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7865592757460426</v>
+        <v>0.7844554015692623</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8498710514503613</v>
+        <v>0.8494368322527366</v>
       </c>
     </row>
     <row r="11">
@@ -2422,19 +2422,19 @@
         <v>16035</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9584</v>
+        <v>9461</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26294</v>
+        <v>26428</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02865294014200883</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01712621871389013</v>
+        <v>0.01690646353126406</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04698398606949729</v>
+        <v>0.04722276121654314</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>32</v>
@@ -2443,19 +2443,19 @@
         <v>35863</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23737</v>
+        <v>24560</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>48015</v>
+        <v>49619</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04826936267045644</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0319482789489466</v>
+        <v>0.03305610283802786</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06462483236218794</v>
+        <v>0.06678431420455824</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>46</v>
@@ -2464,19 +2464,19 @@
         <v>51898</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>38322</v>
+        <v>38577</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>67115</v>
+        <v>68867</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03984162188897991</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02941952924523092</v>
+        <v>0.02961504888314944</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05152371388927852</v>
+        <v>0.05286849435162169</v>
       </c>
     </row>
     <row r="13">
@@ -2493,19 +2493,19 @@
         <v>29297</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19354</v>
+        <v>20223</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42752</v>
+        <v>42855</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05235028464869421</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0345822593026635</v>
+        <v>0.03613569545859655</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07639245872141953</v>
+        <v>0.07657724338587381</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -2514,19 +2514,19 @@
         <v>70678</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54892</v>
+        <v>54203</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88334</v>
+        <v>87175</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09512795474627249</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07388176413924862</v>
+        <v>0.07295386757130841</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1188916747682619</v>
+        <v>0.1173327967417152</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>91</v>
@@ -2535,19 +2535,19 @@
         <v>99975</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>81240</v>
+        <v>82527</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>123891</v>
+        <v>122622</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07674952135480739</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06236726385114189</v>
+        <v>0.06335511192822525</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09510986631607686</v>
+        <v>0.09413582540612313</v>
       </c>
     </row>
     <row r="14">
@@ -2564,19 +2564,19 @@
         <v>514305</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>499769</v>
+        <v>498251</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>526179</v>
+        <v>526582</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.918996775209297</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8930228871542668</v>
+        <v>0.8903101879962257</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9402146072358566</v>
+        <v>0.9409340480934542</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>597</v>
@@ -2585,19 +2585,19 @@
         <v>636434</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>614992</v>
+        <v>617130</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>654897</v>
+        <v>656553</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8566026825832711</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8277422393642957</v>
+        <v>0.8306201532843114</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8814516687298927</v>
+        <v>0.883681791307448</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1061</v>
@@ -2606,19 +2606,19 @@
         <v>1150739</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1122488</v>
+        <v>1126947</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1172929</v>
+        <v>1173560</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8834088567562127</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8617210975834726</v>
+        <v>0.8651440589545621</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9004441144945881</v>
+        <v>0.9009282884644256</v>
       </c>
     </row>
     <row r="15">
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6981</v>
+        <v>7538</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006038629019565902</v>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02088061814028561</v>
+        <v>0.02254620073343871</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6109</v>
+        <v>6297</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002746431425896789</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01617253754917486</v>
+        <v>0.01666921296399775</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -2990,19 +2990,19 @@
         <v>3056</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8215</v>
+        <v>9017</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004292131161047103</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001389342609774554</v>
+        <v>0.001402517427837751</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01153659725182165</v>
+        <v>0.01266336561864189</v>
       </c>
     </row>
     <row r="5">
@@ -3019,19 +3019,19 @@
         <v>8838</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4740</v>
+        <v>3956</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15932</v>
+        <v>16703</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02643567643105211</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01417759517092617</v>
+        <v>0.01183125909189658</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04765353272601662</v>
+        <v>0.04995981461560083</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -3040,19 +3040,19 @@
         <v>8245</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3972</v>
+        <v>3379</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16301</v>
+        <v>14852</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02182529159594462</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01051431480054445</v>
+        <v>0.008944496576071182</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04315026366111967</v>
+        <v>0.03931455867867842</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -3061,19 +3061,19 @@
         <v>17083</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10213</v>
+        <v>10860</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25693</v>
+        <v>26165</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02398988543207112</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01434210158635333</v>
+        <v>0.01525132497648586</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03608100799304502</v>
+        <v>0.0367437052116892</v>
       </c>
     </row>
     <row r="6">
@@ -3090,19 +3090,19 @@
         <v>323473</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>315223</v>
+        <v>315427</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>328363</v>
+        <v>328566</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.967525694549382</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9428499286189049</v>
+        <v>0.9434591763874112</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9821513795050201</v>
+        <v>0.9827580727351156</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>345</v>
@@ -3111,19 +3111,19 @@
         <v>368480</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>360754</v>
+        <v>361538</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>373461</v>
+        <v>373585</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9754282769781586</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9549778607321665</v>
+        <v>0.9570528180963822</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9886155235741394</v>
+        <v>0.9889430506817473</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>659</v>
@@ -3132,19 +3132,19 @@
         <v>691953</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>682673</v>
+        <v>682434</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>699834</v>
+        <v>699130</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9717179834068818</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.958686999524661</v>
+        <v>0.9583505354257411</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9827858283245141</v>
+        <v>0.9817976331970322</v>
       </c>
     </row>
     <row r="7">
@@ -3236,19 +3236,19 @@
         <v>5866</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2501</v>
+        <v>2541</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11649</v>
+        <v>11637</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02282418980086028</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009733001455508813</v>
+        <v>0.009888020698204037</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04532675665065181</v>
+        <v>0.04528080469950601</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -3257,19 +3257,19 @@
         <v>19530</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12041</v>
+        <v>11524</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31618</v>
+        <v>31525</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0488046777411708</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03009055685888043</v>
+        <v>0.02879832908294583</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07901121912761741</v>
+        <v>0.07878030653848063</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>22</v>
@@ -3278,19 +3278,19 @@
         <v>25396</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>16376</v>
+        <v>15618</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>38013</v>
+        <v>36811</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03864450009634468</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02491914487770425</v>
+        <v>0.02376557965402923</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05784402080567006</v>
+        <v>0.05601397438442572</v>
       </c>
     </row>
     <row r="9">
@@ -3307,19 +3307,19 @@
         <v>18934</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12523</v>
+        <v>12488</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27991</v>
+        <v>27937</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07367293409916666</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04872802909616766</v>
+        <v>0.0485925559929483</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1089163505852385</v>
+        <v>0.1087049491356766</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>31</v>
@@ -3328,19 +3328,19 @@
         <v>42807</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>29276</v>
+        <v>29816</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>57402</v>
+        <v>59763</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1069714561824609</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07316019400892891</v>
+        <v>0.07450953134455165</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1434453265091038</v>
+        <v>0.1493433466920667</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>53</v>
@@ -3349,19 +3349,19 @@
         <v>61740</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>48233</v>
+        <v>45134</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>79826</v>
+        <v>79801</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09394941824176814</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07339551208408833</v>
+        <v>0.06868020367298615</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1214691309194288</v>
+        <v>0.121431694719136</v>
       </c>
     </row>
     <row r="10">
@@ -3378,19 +3378,19 @@
         <v>232198</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>222604</v>
+        <v>222535</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>239871</v>
+        <v>239702</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.903502876099973</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8661707940165964</v>
+        <v>0.8659020541952023</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9333587931255826</v>
+        <v>0.9326979384708554</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>255</v>
@@ -3399,19 +3399,19 @@
         <v>337832</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>320322</v>
+        <v>317433</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>352422</v>
+        <v>353248</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8442238660763682</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8004671824012715</v>
+        <v>0.7932476346531232</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8806818397401304</v>
+        <v>0.8827466120406481</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>528</v>
@@ -3420,19 +3420,19 @@
         <v>570031</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>549713</v>
+        <v>550805</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>586577</v>
+        <v>588093</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8674060816618872</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8364890005019631</v>
+        <v>0.8381506305425083</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.892584063404665</v>
+        <v>0.8948913010431004</v>
       </c>
     </row>
     <row r="11">
@@ -3524,19 +3524,19 @@
         <v>7885</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3542</v>
+        <v>3662</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13900</v>
+        <v>14759</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01333382825653308</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005990252344639737</v>
+        <v>0.006192742614898788</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02350656826071905</v>
+        <v>0.02495890361317886</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -3545,19 +3545,19 @@
         <v>20568</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12143</v>
+        <v>12206</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31654</v>
+        <v>32795</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02643886985996252</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01560939890619797</v>
+        <v>0.01569038050638642</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0406899766994222</v>
+        <v>0.04215621566238242</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>25</v>
@@ -3566,19 +3566,19 @@
         <v>28452</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17655</v>
+        <v>19031</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>40798</v>
+        <v>40932</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02077932843683528</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01289408420099123</v>
+        <v>0.01389900960560117</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02979532113257839</v>
+        <v>0.02989318080147898</v>
       </c>
     </row>
     <row r="13">
@@ -3595,19 +3595,19 @@
         <v>27772</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19709</v>
+        <v>18996</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38817</v>
+        <v>38577</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04696553602805021</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03333042152161954</v>
+        <v>0.03212489674544652</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06564316092972756</v>
+        <v>0.06523839501034706</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -3616,19 +3616,19 @@
         <v>51051</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>35959</v>
+        <v>37098</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68728</v>
+        <v>69253</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06562462013646428</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04622354509747601</v>
+        <v>0.0476880545511331</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08834765156679961</v>
+        <v>0.08902225800421344</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -3637,19 +3637,19 @@
         <v>78823</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61830</v>
+        <v>63546</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>99400</v>
+        <v>100263</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05756651069852477</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04515615716333225</v>
+        <v>0.04640931155679181</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07259414497114992</v>
+        <v>0.07322399182221301</v>
       </c>
     </row>
     <row r="14">
@@ -3666,19 +3666,19 @@
         <v>555671</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>543194</v>
+        <v>543780</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>564624</v>
+        <v>565130</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9397006357154167</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9186001127909812</v>
+        <v>0.9195913186920865</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9548402652951206</v>
+        <v>0.9556971511191401</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>600</v>
@@ -3687,19 +3687,19 @@
         <v>706312</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>686474</v>
+        <v>685580</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>723569</v>
+        <v>722336</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9079365100035732</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8824358795048375</v>
+        <v>0.8812858484833761</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9301202578281202</v>
+        <v>0.9285347890354211</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1187</v>
@@ -3708,19 +3708,19 @@
         <v>1261983</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1240161</v>
+        <v>1239897</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1283401</v>
+        <v>1281715</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9216541608646399</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9057169600646515</v>
+        <v>0.9055242644949784</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9372963446209587</v>
+        <v>0.9360647288012546</v>
       </c>
     </row>
     <row r="15">
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5301</v>
+        <v>5524</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003774119253233954</v>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01302161256588714</v>
+        <v>0.0135701526067051</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4071,19 +4071,19 @@
         <v>1658</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5091</v>
+        <v>4643</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003783007949885989</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001042487424502455</v>
+        <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01161447365778275</v>
+        <v>0.010592338036517</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4092,19 +4092,19 @@
         <v>3195</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1097</v>
+        <v>1265</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8339</v>
+        <v>7085</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.003778728020637918</v>
+        <v>0.003778728020637919</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001297096853415263</v>
+        <v>0.001495870743499055</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00986310764470464</v>
+        <v>0.008379998313885318</v>
       </c>
     </row>
     <row r="5">
@@ -4121,19 +4121,19 @@
         <v>6315</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2846</v>
+        <v>3164</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12123</v>
+        <v>12253</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.01551393287253634</v>
+        <v>0.01551393287253633</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006991941372859229</v>
+        <v>0.007771731123148161</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0297802614128954</v>
+        <v>0.03009924917824562</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -4142,19 +4142,19 @@
         <v>8197</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4603</v>
+        <v>4624</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13507</v>
+        <v>12784</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.01870009687609922</v>
+        <v>0.01870009687609923</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01050001886448785</v>
+        <v>0.01054807579467143</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.030811803079683</v>
+        <v>0.02916283343887999</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -4163,19 +4163,19 @@
         <v>14513</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9004</v>
+        <v>9577</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21518</v>
+        <v>21016</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01716595109052162</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01065005544355466</v>
+        <v>0.01132793849788478</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02545232123873793</v>
+        <v>0.02485864200768588</v>
       </c>
     </row>
     <row r="6">
@@ -4192,19 +4192,19 @@
         <v>399228</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>393697</v>
+        <v>393132</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>403183</v>
+        <v>403281</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9807119478742296</v>
+        <v>0.9807119478742297</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9671245000601306</v>
+        <v>0.9657353950348817</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9904274376422231</v>
+        <v>0.9906665628656294</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>807</v>
@@ -4213,19 +4213,19 @@
         <v>428501</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>423351</v>
+        <v>423416</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>432471</v>
+        <v>432281</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9775168951740147</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9657679131862845</v>
+        <v>0.965916791011073</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9865715869984407</v>
+        <v>0.9861394441986305</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1366</v>
@@ -4234,19 +4234,19 @@
         <v>827729</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>819444</v>
+        <v>820622</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>833714</v>
+        <v>833058</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9790553208888404</v>
+        <v>0.9790553208888405</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9692555376789898</v>
+        <v>0.9706495019509257</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.986134933697987</v>
+        <v>0.9853589938080139</v>
       </c>
     </row>
     <row r="7">
@@ -4338,19 +4338,19 @@
         <v>6507</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3290</v>
+        <v>2980</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12771</v>
+        <v>11962</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02103818386112208</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01063633933346736</v>
+        <v>0.009634760441597775</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04128716220167628</v>
+        <v>0.03867157421788919</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>38</v>
@@ -4359,19 +4359,19 @@
         <v>20656</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14550</v>
+        <v>14422</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27756</v>
+        <v>28198</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04451054764630352</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03135392482832896</v>
+        <v>0.03107722163488644</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05980962684905678</v>
+        <v>0.06076147041696422</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>48</v>
@@ -4380,19 +4380,19 @@
         <v>27163</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20089</v>
+        <v>19786</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>37110</v>
+        <v>35953</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03512284461346697</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02597516391259732</v>
+        <v>0.02558330114407301</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04798387325728194</v>
+        <v>0.04648761212812975</v>
       </c>
     </row>
     <row r="9">
@@ -4409,19 +4409,19 @@
         <v>23696</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16676</v>
+        <v>17234</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>32074</v>
+        <v>32862</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07660909319286403</v>
+        <v>0.07660909319286401</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05391414822450235</v>
+        <v>0.05571856637669999</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.103695256232698</v>
+        <v>0.106243249752245</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>121</v>
@@ -4430,19 +4430,19 @@
         <v>62997</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>53255</v>
+        <v>51509</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>75247</v>
+        <v>75457</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1357481144569365</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1147553450591947</v>
+        <v>0.1109936287355108</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.162144907272386</v>
+        <v>0.1625974347553356</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>159</v>
@@ -4451,19 +4451,19 @@
         <v>86693</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>73688</v>
+        <v>72978</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>101708</v>
+        <v>101219</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1120956364039927</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09528011313859007</v>
+        <v>0.09436165783096938</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1315105244441495</v>
+        <v>0.1308790021802159</v>
       </c>
     </row>
     <row r="10">
@@ -4480,19 +4480,19 @@
         <v>279109</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>269470</v>
+        <v>269278</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>287180</v>
+        <v>286383</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9023527229460141</v>
+        <v>0.902352722946014</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8711928669004917</v>
+        <v>0.8705700969345675</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9284477636245679</v>
+        <v>0.9258717486979127</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>721</v>
@@ -4501,19 +4501,19 @@
         <v>380417</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>366960</v>
+        <v>366713</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>391958</v>
+        <v>393203</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.81974133789676</v>
+        <v>0.8197413378967598</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7907431294357645</v>
+        <v>0.7902098197570091</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8446098885974449</v>
+        <v>0.847293433707071</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1130</v>
@@ -4522,19 +4522,19 @@
         <v>659525</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>641237</v>
+        <v>643120</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>674328</v>
+        <v>674343</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8527815189825404</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8291349138646854</v>
+        <v>0.831569440181928</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8719226887056852</v>
+        <v>0.8719408915950067</v>
       </c>
     </row>
     <row r="11">
@@ -4626,19 +4626,19 @@
         <v>8044</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4160</v>
+        <v>3831</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14340</v>
+        <v>13926</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.01122811130564676</v>
+        <v>0.01122811130564677</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005806819043045378</v>
+        <v>0.005348324167165491</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02001759562216862</v>
+        <v>0.01943910730022562</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>41</v>
@@ -4647,19 +4647,19 @@
         <v>22314</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15361</v>
+        <v>16207</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29165</v>
+        <v>30204</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02472700613662748</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01702153841243427</v>
+        <v>0.01795927013413088</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03231826609955291</v>
+        <v>0.03346984160910544</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>53</v>
@@ -4668,19 +4668,19 @@
         <v>30358</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>22892</v>
+        <v>23267</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>40061</v>
+        <v>39616</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01875320771719611</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01414109155508469</v>
+        <v>0.0143730740908476</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02474709251915952</v>
+        <v>0.02447190112280928</v>
       </c>
     </row>
     <row r="13">
@@ -4697,19 +4697,19 @@
         <v>30011</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22721</v>
+        <v>22418</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41320</v>
+        <v>40555</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04189258991605381</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03171590463438377</v>
+        <v>0.03129325463662677</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05767849699517404</v>
+        <v>0.05661077610914789</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>136</v>
@@ -4718,19 +4718,19 @@
         <v>71194</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59936</v>
+        <v>59487</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85635</v>
+        <v>84257</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0788916401475033</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06641662814432778</v>
+        <v>0.06591890305303684</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09489397311245205</v>
+        <v>0.09336682146587914</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>183</v>
@@ -4739,19 +4739,19 @@
         <v>101205</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87166</v>
+        <v>87446</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116051</v>
+        <v>117934</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06251808730776781</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05384560649682078</v>
+        <v>0.05401851069054415</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07168897060074843</v>
+        <v>0.07285197459447899</v>
       </c>
     </row>
     <row r="14">
@@ -4768,19 +4768,19 @@
         <v>678336</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>666650</v>
+        <v>665314</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>686694</v>
+        <v>686692</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9468792987782995</v>
+        <v>0.9468792987782996</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9305669744171549</v>
+        <v>0.9287029242301914</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9585467593034956</v>
+        <v>0.9585436715513667</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1528</v>
@@ -4789,19 +4789,19 @@
         <v>808918</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>792634</v>
+        <v>794029</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>821400</v>
+        <v>821628</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8963813537158691</v>
+        <v>0.8963813537158692</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8783372835404591</v>
+        <v>0.8798831082479088</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9102136880440865</v>
+        <v>0.9104660070496717</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2496</v>
@@ -4810,19 +4810,19 @@
         <v>1487255</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1469142</v>
+        <v>1468873</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1504435</v>
+        <v>1502156</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9187287049750362</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9075397266174023</v>
+        <v>0.9073739251795241</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9293417986230472</v>
+        <v>0.9279335790209766</v>
       </c>
     </row>
     <row r="15">
